--- a/docs/20220408 Begrippen Apartementsrecht.xlsx
+++ b/docs/20220408 Begrippen Apartementsrecht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yellowtailbv-my.sharepoint.com/personal/reuwens_davinci-consulting_nl/Documents/Documenten/Taxonomie/ZV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SantemaArjen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="450" documentId="8_{5EABAC3D-0AC0-40E1-A4E2-83422938807C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFC6134D-A657-0F48-B133-C26951F67BA1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA99EBD-95F3-4FB6-AF5A-121A46D755DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="900" windowWidth="18660" windowHeight="17980" xr2:uid="{1F8431DF-BD7E-499A-98A0-07CE75330B16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1F8431DF-BD7E-499A-98A0-07CE75330B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Begrippen" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="162">
   <si>
     <t>Begrip</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Definitie</t>
   </si>
   <si>
-    <t>Omschrijving</t>
-  </si>
-  <si>
     <t>Bron</t>
   </si>
   <si>
@@ -521,6 +518,12 @@
   </si>
   <si>
     <t>mak</t>
+  </si>
+  <si>
+    <t>Beschrijving in klare taal</t>
+  </si>
+  <si>
+    <t>Toelichting</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -643,16 +646,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BE660F8-5DEF-4359-8D5A-F3D1233865AC}" name="Tabel1" displayName="Tabel1" ref="A1:F1048576" totalsRowShown="0">
-  <autoFilter ref="A1:F1048576" xr:uid="{6BE660F8-5DEF-4359-8D5A-F3D1233865AC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BE660F8-5DEF-4359-8D5A-F3D1233865AC}" name="Tabel1" displayName="Tabel1" ref="A1:G1048576" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{6BE660F8-5DEF-4359-8D5A-F3D1233865AC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G47">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{022AE24A-41DC-43A8-8389-AEFD24C40439}" name="Begrip" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{C2753491-A9B6-45B6-AC9B-7D0803FBD6D3}" name="Definitie"/>
+    <tableColumn id="3" xr3:uid="{F7E38396-69CE-4F17-B70B-D46ECA73E207}" name="Beschrijving in klare taal"/>
+    <tableColumn id="7" xr3:uid="{588517B6-AF38-4DD3-B79A-7EA9B916B76D}" name="Toelichting"/>
     <tableColumn id="6" xr3:uid="{74FB72F2-EC80-4F1C-89EF-E451C1DDB8AB}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{F7E38396-69CE-4F17-B70B-D46ECA73E207}" name="Omschrijving"/>
     <tableColumn id="4" xr3:uid="{50540CE8-7E6D-4594-B33C-1F2B0C743C4F}" name="Bron"/>
     <tableColumn id="5" xr3:uid="{3C6D1422-AFF3-4D89-8BD3-0D7FC5572659}" name="URI"/>
   </tableColumns>
@@ -661,7 +665,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -957,21 +961,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B560BA-4730-4980-A9C2-8E9E688F5483}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="55" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="73.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="73.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,534 +984,537 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
         <v>61</v>
       </c>
-      <c r="E6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" t="s">
-        <v>150</v>
+      <c r="F47" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1527,226 +1535,226 @@
       <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
         <v>85</v>
       </c>
-      <c r="P1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" t="s">
         <v>132</v>
       </c>
-      <c r="K3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1756,283 +1764,283 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" t="s">
         <v>125</v>
       </c>
-      <c r="K9" t="s">
-        <v>126</v>
-      </c>
       <c r="L9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="S10" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s">
         <v>87</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>142</v>
       </c>
-      <c r="L11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" t="s">
         <v>143</v>
       </c>
-      <c r="N11" t="s">
-        <v>86</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>144</v>
       </c>
-      <c r="S11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="T12" t="s">
         <v>148</v>
       </c>
-      <c r="T12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
         <v>91</v>
       </c>
-      <c r="K13" t="s">
-        <v>92</v>
-      </c>
       <c r="L13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
         <v>94</v>
       </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
         <v>95</v>
       </c>
-      <c r="I14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" t="s">
-        <v>96</v>
-      </c>
       <c r="N14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
         <v>97</v>
       </c>
-      <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>98</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
         <v>99</v>
       </c>
-      <c r="J15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" t="s">
         <v>100</v>
       </c>
-      <c r="M15" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" t="s">
         <v>106</v>
       </c>
-      <c r="I16" t="s">
+      <c r="R16" t="s">
         <v>127</v>
-      </c>
-      <c r="K16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" t="s">
-        <v>107</v>
-      </c>
-      <c r="R16" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
